--- a/Web前端技术/汇总-新.xlsx
+++ b/Web前端技术/汇总-新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\Web前端技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F64EE6D-B43E-4E03-AA54-96660E5F4ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A17F6D-5D98-4987-9A8D-624B3766177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2648,7 +2648,7 @@
   <dimension ref="A1:D464"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Web前端技术/汇总-新.xlsx
+++ b/Web前端技术/汇总-新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\Web前端技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A17F6D-5D98-4987-9A8D-624B3766177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC3E7F9-1522-4053-9BC1-6EAC51DB206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="721">
   <si>
     <t>题型</t>
   </si>
@@ -799,12 +799,6 @@
     <t>['A得到某个索引的','B删除单个数据','C保存数据','D读取数据']</t>
   </si>
   <si>
-    <t>下列CSS规则中能够使超链接在鼠标指针盘旋时产生上画线效果的选项是()</t>
-  </si>
-  <si>
-    <t>['Aa:hover{text-decoration:none;}','Ba:hover{text-decoration:overline;}','Ca:hover{text-decoration:line-through;}','Da:hover{text-decoration:underline;}']</t>
-  </si>
-  <si>
     <t>下列CSS规则中能够使超链接在鼠标指针盘旋时产生下边框为2px、实线、红色效果的选项是()</t>
   </si>
   <si>
@@ -817,12 +811,6 @@
     <t>['Ali{float:middle;}','Bli{float:left;}','Cli{float:up;}','Dli{float:none;}']</t>
   </si>
   <si>
-    <t>下列CSS规则中能够让图层div不显示的选项是（）</t>
-  </si>
-  <si>
-    <t>['Adiv{display:none;}','Bdiv{display:hidden;}','Cdiv{display:inline;}','Ddiv{display:block;}']</t>
-  </si>
-  <si>
     <t>下列CSS规则中能够让图层div隐藏的选项是()。</t>
   </si>
   <si>
@@ -841,12 +829,6 @@
     <t>['A&lt;meta&gt;','B&lt;ol&gt;','C&lt;font&gt;','D&lt;ul&gt;']</t>
   </si>
   <si>
-    <t>下列input标记的类型属性取值表示单选按钮的是()。</t>
-  </si>
-  <si>
-    <t>['Aselect','Bradio','Ccheckbox','Dhidden']</t>
-  </si>
-  <si>
     <t>下列不属于CSS文本对齐属性的取值的是()。</t>
   </si>
   <si>
@@ -857,12 +839,6 @@
   </si>
   <si>
     <t>['Apadding','Bmargin','Cfont','Dborder']</t>
-  </si>
-  <si>
-    <t>下列不属于JavaScript的关键字的是()。</t>
-  </si>
-  <si>
-    <t>['Afor','Bnew','Cswitch','Dinterface']</t>
   </si>
   <si>
     <t>下列不是JavaScript的特点的是()。</t>
@@ -931,12 +907,6 @@
     <t>['Abox-shadow','Banimation','Ctransition','Dtransform']</t>
   </si>
   <si>
-    <t>下列标记中可以定义有序列表的标记是()。</t>
-  </si>
-  <si>
-    <t>['A&lt;dd&gt;&lt;/dd&gt;','B&lt;ul&gt;&lt;/ul&gt;','C&lt;dl&gt;&lt;/dl&gt;','D&lt;ol&gt;&lt;/ol&gt;']</t>
-  </si>
-  <si>
     <t>下列标记中能够实现跨多行的是()。</t>
   </si>
   <si>
@@ -965,12 +935,6 @@
   </si>
   <si>
     <t>['Adiv{display:block;}','Bdiv{display:none;}','Cdiv{overflow:hidden;}','Ddiv{display:inline;}']</t>
-  </si>
-  <si>
-    <t>下列输入类型用于定义周和年控件(无时区)的是()。</t>
-  </si>
-  <si>
-    <t>['Ayear','Bdate','Ctime','Dweek']</t>
   </si>
   <si>
     <t>下列输入类型用于定义滑块控件的是()。</t>
@@ -1185,12 +1149,6 @@
     <t>['A&lt;marqueeauto="200"&gt;…&lt;/marquee&gt;','B&lt;marqueescrolldelay="200"&gt;…&lt;/marquee&gt;','C&lt;marqueescrollamount="200"&gt;…&lt;/marquee&gt;','D&lt;marqueeloop="200"&gt;…&lt;/marquee&gt;']</t>
   </si>
   <si>
-    <t>无序列表的type属性的默认值是()</t>
-  </si>
-  <si>
-    <t>['Aline','Bsquare','Ccircle','Ddisc']</t>
-  </si>
-  <si>
     <t>求3和5中最小数的正确的函数是()</t>
   </si>
   <si>
@@ -1434,12 +1392,6 @@
     <t>onload()|open()|replace()|load()</t>
   </si>
   <si>
-    <t>使用Canvas绘制圆形的方法是(   )</t>
-  </si>
-  <si>
-    <t>其他选项依次执行|beginPath()|arc(x,y,100,开始角度,结束角度,绘制方向)|closePath()</t>
-  </si>
-  <si>
     <t>无序列表的type属性的默认值是(       )</t>
   </si>
   <si>
@@ -1458,30 +1410,12 @@
     <t>div{display:block;}|div{display:inline;}|div{display:hidden;}|div{display:none;}</t>
   </si>
   <si>
-    <t>下列CSS规则中能够让图层div隐藏的选项是(           )。</t>
-  </si>
-  <si>
-    <t>div{visibility:none;}|div{visibility:block;}|div{visibility:visible; }|div{visibility:hidden;}</t>
-  </si>
-  <si>
     <t>下列CSS规则中能够使超链接在鼠标指针盘旋时产生上画线效果的选项是(   )</t>
   </si>
   <si>
     <t>a:hover{text-decoration:overline;}|a:hover{ text-decoration:none;}|a:hover{text-decoration:line-through;}|a:hover {text-decoration:underline;}</t>
   </si>
   <si>
-    <t>下列CSS规则中能够使超链接在鼠标指针盘旋时产生下边框为2px、实线、红色效果的选项是(   )</t>
-  </si>
-  <si>
-    <t>a:hover {border-right:2px double #FF0000;text-decoration:none;}|a:hover{ border-top:2px solid #FF0000;text-decoration:none;}|a:hover {border-bottom:2px dashed #FF0000;text-decoration:none;}|a:hover {border-bottom:2px solid #FF0000;text-decoration:none;}</t>
-  </si>
-  <si>
-    <t>下列HTML5元素用于显示已知范围内的标量测量的是(      ）</t>
-  </si>
-  <si>
-    <t>&lt; meter&gt;|&lt;gauge&gt;|&lt;range&gt;|&lt;measure &gt;</t>
-  </si>
-  <si>
     <t>下列input标记的类型属性取值表示单选按钮的是(     )。</t>
   </si>
   <si>
@@ -1524,12 +1458,6 @@
     <t>new|for|switch|interface</t>
   </si>
   <si>
-    <t>下列代码分析正确的是(       )。 1  function createNode( ){ 2  var p1 = document.createElement("p" ); 3  var txt= document.createTextNode("Hello! " ); 4  Ap1.appendChild(txt); 5  document.appendChild(p); 6  }</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;是文本节点的子节点|函数的功能是创建新的文本节点|代码第4行是为文档添加文本节点|代码第2行是创建一个&lt;p&gt;元素标记</t>
-  </si>
-  <si>
     <t>下列定义display()函数的语法正确的是(           )。</t>
   </si>
   <si>
@@ -1590,12 +1518,6 @@
     <t>float|clear|display|overflow</t>
   </si>
   <si>
-    <t>下列选项中为行内标记的是(     )。</t>
-  </si>
-  <si>
-    <t>&lt;pre&gt;&lt;/pre&gt;|&lt;p&gt;&lt;/p&gt;|&lt; div &gt;&lt;/div&gt;|&lt;span &gt;&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>下列选项中样式的优先级最高的是(          )。</t>
   </si>
   <si>
@@ -1614,12 +1536,6 @@
     <t>&lt;body&gt;&lt;frame src="" name="rightframe"&gt;...&lt;/body&gt;|&lt;body&gt;&lt;iframe src="" name="rightframe"&gt;&lt;/iframe&gt;...&lt;/body&gt;|&lt;body&gt;&lt;frame src="" name="rightframe"&gt;&lt;/frame&gt;...&lt;/body&gt;|&lt;body&gt;&lt;iframe src="" name="rightframe"&gt;...&lt;/body&gt;</t>
   </si>
   <si>
-    <t>下面这两行代码的功能是(    ) 1  &lt;a href="javascript:history.back()"&gt;&lt;/a&gt; 2 &lt; a href = "javascript:history.forward( )"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>代码第1行的功能相当于“后退”按钮|其他表述都不正确|.代码第2行的功能相当于“后退”按钮|代码第1行的功能相当于"前进"按钮</t>
-  </si>
-  <si>
     <t>以下()不是元信息 meta标记的属性。</t>
   </si>
   <si>
@@ -1758,523 +1674,567 @@
     <t>按要求设计"匾牌"页面,如图8-8所示。要求是页面标题为"匾牌设计";页面内容为一个图层中嵌入一个段落,段落的内容为"海纳百川有容乃大";段落的样式为"斜体、特粗、70px大小,行高1,5倍、隶书";图层 div的#div0 样式为"宽度 800px、高度100px、边框宽度20px、线型outset、颜色#FF0000,填充20px、有边距(上下20px、左右自动)";页面所有内容居中显示(body标记的样式)。</t>
   </si>
   <si>
-    <t>设计一个HTML页面，标题为'匾牌设计'，页面内容包含一个div图层，id为'div0'，样式设置为'宽度: 800px; 高度: 100px; 边框: 20px outset #FF0000; 填充: 20px; 边距: 20px auto;'。在div中嵌入一个段落，内容为'海纳百川有容乃大'，段落样式为'字体样式: 斜体; 字体粗细: 特粗; 字体大小: 70px; 行高: 1.5倍; 字体家族: 隶书;'。整个页面内容居中显示，body标记的样式设置为'文本对齐: 居中;'。</t>
-  </si>
-  <si>
     <t>编写程序实现如图 12-11所示的登录页面。</t>
   </si>
   <si>
+    <t>编写效果如图9-17所示的网页。网页由左、右两个图层构成,左边div设置背景图像,图像居中显示;右边div设置背景图像填充效果,添加有效果文字内容。设计要求: (1)HTML 中的 div 结构。 &lt; div id = "wrap"&gt; &lt; div id="pic"&gt;&lt;/div&gt; &lt; div id ="text"&gt; &lt;div id="title"&gt;木兰花令,拟古决绝词&lt;/div&gt;&lt;div id="author"&gt;纳兰性德&lt;/div&gt; &lt;div id= "content"&gt; &lt;p&gt;人生若只如初见,&lt;/p&gt; ... &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; (2)内容为"人生若只如初见,何事秋风悲画扇。等闲变却故人心,却道故心人易变。骊山雨罢清宵半,泪雨霖铃终不怨。何如薄幸锦衣郎,比翼连枝当日愿。" (3)样式说明。 #wrap:宽度900px、边界0auto、边框红色2px实线、上边界5px。div:文本居中对齐。#pic:宽度420px、高度300px、背景图像为ex8.jpg、不重复、位置居中、图像向左浮动背景颜色为#77A。#text:背景图像为ex8.jpg、向右浮动、宽度420px、高度500px、背景颜色为#77A、填充为10px、字体粗细为bold。#title:字体为"华文彩云"大小为32px#author:字号大小为12px、字体为黑体、文字右对齐、下边界为24px。p:字体为隶书、字号大小为24px、边界为2px、字符间距为0.5em、行高为1.5em、文字居中对齐</t>
+  </si>
+  <si>
+    <t>(1) HTML结构: &lt;div id="wrap"&gt; &lt;div id="pic"&gt;&lt;/div&gt; &lt;div id="text"&gt; &lt;div id="title"&gt;木兰花令,拟古决绝词&lt;/div&gt; &lt;div id="author"&gt;纳兰性德&lt;/div&gt; &lt;div id="content"&gt; &lt;p&gt;人生若只如初见,&lt;/p&gt; &lt;p&gt;何事秋风悲画扇。&lt;/p&gt; &lt;p&gt;等闲变却故人心,&lt;/p&gt; &lt;p&gt;却道故心人易变。&lt;/p&gt; &lt;p&gt;骊山雨罢清宵半,&lt;/p&gt; &lt;p&gt;泪雨霖铃终不怨。&lt;/p&gt; &lt;p&gt;何如薄幸锦衣郎,&lt;/p&gt; &lt;p&gt;比翼连枝当日愿。&lt;/p&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; (2) CSS样式: #wrap { width: 900px; margin: 0 auto; border: 2px solid red; margin-top: 5px; } div { text-align: center; } #pic { width: 420px; height: 300px; background-image: url('ex8.jpg'); background-repeat: no-repeat; background-position: center; float: left; background-color: #77A; } #text { background-image: url('ex8.jpg'); float: right; width: 420px; height: 500px; background-color: #77A; padding: 10px; font-weight: bold; } #title { font-family: "华文彩云"; font-size: 32px; } #author { font-size: 12px; font-family: "黑体"; text-align: right; margin-bottom: 24px; } p { font-family: "隶书"; font-size: 24px; margin: 2px; letter-spacing: 0.5em; line-height: 1.5em; text-align: center; }</t>
+  </si>
+  <si>
+    <t>简述定义列表与无序列表、有序列表的差异</t>
+  </si>
+  <si>
+    <t>(1) 定义列表（&lt;dl&gt;）用于展示术语及其定义，每个列表项包含一个术语（&lt;dt&gt;）和一个或多个定义（&lt;dd&gt;）。 (2) 无序列表（&lt;ul&gt;）用于展示没有特定顺序的项目，每个列表项（&lt;li&gt;）前通常有一个项目符号。 (3) 有序列表（&lt;ol&gt;）用于展示有特定顺序的项目，每个列表项（&lt;li&gt;）前有一个数字或字母表示顺序。</t>
+  </si>
+  <si>
+    <t>简述列表类型及常用列表。</t>
+  </si>
+  <si>
+    <t>简述属性选择器有几种定义方式。</t>
+  </si>
+  <si>
+    <t>解释 &lt;fieldset&gt; 和 &lt;legend&gt; 标记的作用。</t>
+  </si>
+  <si>
+    <t>&lt;fieldset&gt; 标记用于将表单内的相关元素分组，创建一个方框将这些元素包围起来，以增强表单的结构性和可读性。&lt;legend&gt; 标记用于为 &lt;fieldset&gt; 元素定义标题，通常显示在方框的左上角，用于描述分组的内容或目的。</t>
+  </si>
+  <si>
+    <t>利用表单和表单元素设计简单的应聘页面,如图12-12所示,写出实现的HTML 代码</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt; &lt;html&gt; &lt;head&gt; &lt;title&gt;应聘页面&lt;/title&gt; &lt;/head&gt; &lt;body&gt; &lt;h1&gt;应聘申请表&lt;/h1&gt; &lt;form action="submit_application.php" method="post"&gt; &lt;label for="name"&gt;姓名:&lt;/label&gt; &lt;input type="text" id="name" name="name" required&gt;&lt;br&gt;&lt;br&gt; &lt;label for="email"&gt;电子邮件:&lt;/label&gt; &lt;input type="email" id="email" name="email" required&gt;&lt;br&gt;&lt;br&gt; &lt;label for="phone"&gt;电话:&lt;/label&gt; &lt;input type="tel" id="phone" name="phone" required&gt;&lt;br&gt;&lt;br&gt; &lt;label for="position"&gt;应聘职位:&lt;/label&gt; &lt;select id="position" name="position"&gt; &lt;option value="developer"&gt;开发工程师&lt;/option&gt; &lt;option value="designer"&gt;设计师&lt;/option&gt; &lt;option value="manager"&gt;项目经理&lt;/option&gt; &lt;/select&gt;&lt;br&gt;&lt;br&gt; &lt;label for="resume"&gt;上传简历:&lt;/label&gt; &lt;input type="file" id="resume" name="resume" accept=".pdf,.doc,.docx"&gt;&lt;br&gt;&lt;br&gt; &lt;label for="message"&gt;个人简介:&lt;/label&gt;&lt;br&gt; &lt;textarea id="message" name="message" rows="4" cols="50"&gt;&lt;/textarea&gt;&lt;br&gt;&lt;br&gt; &lt;input type="submit" value="提交申请"&gt; &lt;/form&gt; &lt;/body&gt; &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>两个Web本地存储对象在使用中有什么区别?</t>
+  </si>
+  <si>
+    <t>(1) localStorage: 存储的数据没有过期时间，除非用户手动清除或通过JavaScript代码移除，否则数据会一直存在。 (2) sessionStorage: 存储的数据在页面会话结束时被清除，即当页面被关闭时，数据自动消失。</t>
+  </si>
+  <si>
+    <t>什么是document对象?如何获取文档对象上的元素?</t>
+  </si>
+  <si>
+    <t>(1) document对象是浏览器提供的JavaScript对象，代表当前加载的网页文档，它是DOM（文档对象模型）的入口点，允许开发者通过JavaScript与页面内容进行交互。 (2)可以通过多种方法获取文档对象上的元素，例如使用document.getElementById()获取具有特定ID的元素，使用document.getElementsByClassName()获取具有特定类名的所有元素，使用document.getElementsByTagName()获取特定标签名的所有元素，或者使用document.querySelector()和document.querySelectorAll()通过CSS选择器获取元素。</t>
+  </si>
+  <si>
+    <t>使用&lt;img&gt;标记可以在页面中插入图像,如何设置图像的高度和宽度?如何设替换文本?</t>
+  </si>
+  <si>
+    <t>(1) 使用height和width属性设置图像的高度和宽度，例如：&lt;img src='image.jpg' height='100' width='200'&gt; (2) 使用alt属性设置替换文本，例如：&lt;img src='image.jpg' alt='替换文本'&gt;</t>
+  </si>
+  <si>
+    <t>使用javascript语言，在自定义函数时应注意哪些事项?</t>
+  </si>
+  <si>
+    <t>(1) 函数命名应具有描述性，清晰表达函数用途。 (2) 避免使用全局变量，以减少副作用。 (3) 函数应尽量短小，一个函数只做一件事。 (4) 使用默认参数值可以提高函数的灵活性。 (5) 合理使用注释，解释复杂的逻辑或算法。 (6) 考虑函数的可重用性，避免硬编码。 (7) 使用箭头函数简化代码，但注意this的绑定问题。 (8) 正确处理错误和异常，避免程序崩溃。 (9) 考虑性能，避免在循环中创建函数。 (10) 使用模块化方式组织函数，便于管理和维护。</t>
+  </si>
+  <si>
+    <t>事件发生时对事件的处理方式有哪几种?</t>
+  </si>
+  <si>
+    <t>(1) 立即处理 (2) 延迟处理 (3) 忽略处理</t>
+  </si>
+  <si>
+    <t>试比较段落标记与块引用标记的相同点与不同点。</t>
+  </si>
+  <si>
+    <t>(1) 相同点：段落标记和块引用标记都是HTML中用于格式化文本的标签，它们都可以用来组织内容，使得网页结构更加清晰。 (2) 不同点：段落标记(&lt;p&gt;)用于定义段落，通常会自动在其前后创建一些空白；而块引用标记(&lt;blockquote&gt;)用于定义长的引用，浏览器通常会对块引用进行缩进处理，以区别于普通文本。</t>
+  </si>
+  <si>
+    <t>写出定义表格的所有常用标记,并说明它们各自的作用。</t>
+  </si>
+  <si>
+    <t>(1) &lt;table&gt;: 定义表格的开始和结束。(2) &lt;tr&gt;: 定义表格中的一行。(3) &lt;td&gt;: 定义表格中的一个单元格。(4) &lt;th&gt;: 定义表格中的表头单元格。(5) &lt;caption&gt;: 定义表格的标题。(6) &lt;thead&gt;: 定义表格的页眉。(7) &lt;tbody&gt;: 定义表格的主体。(8) &lt;tfoot&gt;: 定义表格的页脚。(9) &lt;colgroup&gt;: 定义表格中一组列的属性。(10) &lt;col&gt;: 定义表格中一个列的属性。</t>
+  </si>
+  <si>
+    <t>写出制作页面书签的步骤,并举例说明。</t>
+  </si>
+  <si>
+    <t>(1) 打开你想要添加书签的网页。 (2) 在浏览器的地址栏旁边找到书签图标（通常是一个星形图标）。 (3) 点击书签图标，然后选择“添加书签”或类似的选项。 (4) 在弹出的对话框中，你可以编辑书签的名称和选择保存的文件夹。 (5) 点击“保存”完成书签的添加。 举例说明：比如你在浏览一个经常访问的新闻网站，你可以按照上述步骤将其添加到书签中，以后只需点击书签即可快速访问该网站。</t>
+  </si>
+  <si>
+    <t>&lt;a&gt; 标签的 href 属性值可以是相对路径，也可以是绝对路径。</t>
+  </si>
+  <si>
+    <t>正确|错误</t>
+  </si>
+  <si>
+    <t>&lt;a&gt; 标签只能用于创建超链接到其他网页，不能链接到同一页面的不同位置。</t>
+  </si>
+  <si>
+    <t>&lt;body&gt; 标签内可以包含 &lt;head&gt; 标签。</t>
+  </si>
+  <si>
+    <t>&lt;canvas&gt; 元素只能绘制 2D 图形，无法实现 3D 效果。</t>
+  </si>
+  <si>
+    <t>&lt;div&gt; 和 &lt;span&gt; 元素不能同时应用多个 CSS 类。</t>
+  </si>
+  <si>
+    <t>&lt;div&gt; 元素和 &lt;span&gt; 元素的语义是相同的，在使用时可以随意替换。</t>
+  </si>
+  <si>
+    <t>&lt;img&gt; 标签的 title 属性和 alt 属性的作用完全相同，都只是在鼠标悬停时显示提示信息。</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;标签用于定义段落，每个&lt;p&gt;标签创建的段落会与前后段落自动产生间距。</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; 标签必须放在 &lt;head&gt; 标签内部，用于定义网页的标题，显示在浏览器的标题栏或标签页上。</t>
+  </si>
+  <si>
+    <t>&lt;video&gt; 标签只能播放本地视频文件，不能播放网络视频。</t>
+  </si>
+  <si>
+    <t>CSS 用于控制网页的外观和样式，能够将网页的结构（HTML）和表现分离。</t>
+  </si>
+  <si>
+    <t>CSS3 的 @media 规则用于响应式设计，可根据不同的设备屏幕尺寸应用不同的样式。</t>
+  </si>
+  <si>
+    <t>CSS3 的 transform 属性可以实现元素的平移、旋转、缩放等效果，但不能实现倾斜效果。</t>
+  </si>
+  <si>
+    <t>dblclick 事件和 click 事件的触发条件相同。</t>
+  </si>
+  <si>
+    <t>div 元素只能使用 id 选择器来设置样式，不能使用类选择器。</t>
+  </si>
+  <si>
+    <t>document.createElement 方法用于创建新的 HTML 元素节点。</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName 方法返回一个 HTML 元素集合，该集合是动态的。</t>
+  </si>
+  <si>
+    <t>DOM 节点的 innerHTML 属性只能用于获取元素的文本内容，不能用于设置。</t>
+  </si>
+  <si>
+    <t>font - family 属性只能设置一种字体，不能设置多种字体。</t>
+  </si>
+  <si>
+    <t>for 循环可以用于遍历数组中的元素。</t>
+  </si>
+  <si>
+    <t>HTML 是用于描述网页结构的标记语言，只能通过手写代码编写，不能使用可视化工具生成。</t>
+  </si>
+  <si>
+    <t>HTML5 的 Geolocation API 能精确获取用户的地理位置，误差几乎为零。</t>
+  </si>
+  <si>
+    <t>HTML5 的 video 元素支持所有常见的视频格式。</t>
+  </si>
+  <si>
+    <t>HTML5 的 Web Storage（localStorage 和 sessionStorage）提供了在客户端存储数据的功能，存储的数据不会随着页面的刷新而丢失（sessionStorage 在会话结束前）。</t>
+  </si>
+  <si>
+    <t>HTML5 的 Web Workers 允许在后台线程中运行脚本，避免阻塞主线程，提高页面的响应性能。</t>
+  </si>
+  <si>
+    <t>if...else 语句用于根据条件执行不同的代码块。</t>
+  </si>
+  <si>
+    <t>JavaScript 是一种基于原型的面向对象编程语言，同时也支持函数式编程特性。</t>
+  </si>
+  <si>
+    <t>JavaScript 中的对象是键值对的集合，键必须是字符串类型。</t>
+  </si>
+  <si>
+    <t>location.href 属性可以获取或设置当前浏览器窗口的 URL。</t>
+  </si>
+  <si>
+    <t>mouseenter 事件和 mousemove 事件的功能一样。</t>
+  </si>
+  <si>
+    <t>text-align: center 可以使块级元素内的文本水平居中对齐。</t>
+  </si>
+  <si>
+    <t>Web Storage 可以存储任意大小的数据，不受任何限制。</t>
+  </si>
+  <si>
+    <t>Web Workers 可以直接访问 DOM 元素。</t>
+  </si>
+  <si>
+    <t>z - index 属性只对具有 position 属性值为 static 的元素有效。</t>
+  </si>
+  <si>
+    <t>表格的边框只能通过 HTML 的 border 属性来设置，不能使用 CSS 来设置。</t>
+  </si>
+  <si>
+    <t>多个 &lt;div&gt; 元素会垂直堆叠显示，而多个 &lt;span&gt; 元素会水平排列显示。</t>
+  </si>
+  <si>
+    <t>渐进式 Web 应用（PWA）只能在支持 Service Worker 的浏览器中运行。</t>
+  </si>
+  <si>
+    <t>可以使用 document.getElementById 方法通过元素的 ID 属性获取单个 HTML 元素节点。</t>
+  </si>
+  <si>
+    <t>可以使用 position 属性来精确定位 div 元素在页面中的位置，如 absolute、relative 等定位方式。</t>
+  </si>
+  <si>
+    <t>可以通过 CSS 的 width 属性来设置整个表格的宽度，但不能设置单个单元格的宽度。</t>
+  </si>
+  <si>
+    <t>可以通过 removeEventListener 方法移除之前添加的事件监听器，但需要确保传入的事件类型、处理函数和添加时一致。</t>
+  </si>
+  <si>
+    <t>可以为 &lt;iframe&gt; 标签添加 srcdoc 属性，直接在其中嵌入 HTML 代码，而不是引用外部页面。</t>
+  </si>
+  <si>
+    <t>密码输入框（&lt;input type="password"&gt;）的 value 属性也可以在页面中直接查看和修改。</t>
+  </si>
+  <si>
+    <t>使用 clear 属性可以清除元素浮动带来的影响，防止布局混乱。</t>
+  </si>
+  <si>
+    <t>使用 removeChild 方法可以从父节点中移除指定的子节点。</t>
+  </si>
+  <si>
+    <t>事件是浏览器中发生的动作，如点击、鼠标移动、键盘按键等，JavaScript 可以监听这些事件并执行相应的代码。</t>
+  </si>
+  <si>
+    <t>为 &lt;img&gt; 标签设置 width 和 height 属性时，如果只设置一个属性，另一个属性会自动按比例调整。</t>
+  </si>
+  <si>
+    <t>文本输入框（&lt;input type="text"&gt;）的 value 属性用于设置输入框的初始值。</t>
+  </si>
+  <si>
+    <t>无序列表和有序列表都可以进行嵌套，即一个列表项中可以包含另一个列表。</t>
+  </si>
+  <si>
+    <t>一个元素只能绑定一个 click 事件监听器。</t>
+  </si>
+  <si>
+    <t>有序列表 &lt;ol&gt; 可以通过 start 属性指定列表项开始的编号。</t>
+  </si>
+  <si>
+    <t>有序列表的编号只能是数字，不能改为字母或罗马数字。</t>
+  </si>
+  <si>
+    <t>在 HTML 中，&lt;a&gt; 标签用于创建超链接，href 属性是必需的，它指定了链接的目标地址。</t>
+  </si>
+  <si>
+    <t>在 HTML5 中，表单元素新增了一些属性，如 placeholder、required 等，以增强表单的功能和用户体验。</t>
+  </si>
+  <si>
+    <t>在事件处理函数中，this 关键字通常指向触发该事件的元素。</t>
+  </si>
+  <si>
+    <t>&lt;select&gt;标记通常必须与（       ）标记配合使用。</t>
+  </si>
+  <si>
+    <t>&lt;option&gt;</t>
+  </si>
+  <si>
+    <t>HTML5新增（      ）类型的input 元素可以产生带有微调按钮的输入域。</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>HTML5新增媒体元素除了可以通过src标记加载媒体文件的URL外，还可以通过（            ）标记加载不同格式的媒体文件,以满足浏览器支持的需要。</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>HTML文档是由（      ）构成的文本文件。</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>HTML文档是由（      ）构成的文本文件。 HTML</t>
+  </si>
+  <si>
+    <t>HTML中的标记分为（   ）标记和双标记两种。</t>
+  </si>
+  <si>
+    <t>单</t>
+  </si>
+  <si>
+    <t>JavaScript中的事件处理方式有3种,分别是（） JavaScript属性的动态绑定、特定对象的特定事件。</t>
+  </si>
+  <si>
+    <t>HTML事件处理程序|DOM0级事件处理程序|DOM2级事件处理程序</t>
+  </si>
+  <si>
+    <t>JavaScript中的事件处理方式有3种,分别是（） JavaScript属性的动态绑定、特定对象的特定事件。 内联事件处理程序|DOM Level 0事件处理程序|DOM Level</t>
+  </si>
+  <si>
+    <t>2事件处理程序</t>
+  </si>
+  <si>
+    <t>JavaScript中的消息对话框分为告警框、（      ）、提示框等三种。</t>
+  </si>
+  <si>
+    <t>告警框|确认框|提示框</t>
+  </si>
+  <si>
+    <t>表达式18/0的值为（      ）</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>表格的行的标记是（             ）</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>单元格跨3行,设置格式为&lt;td="(       )"&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>rowspan=3</t>
+  </si>
+  <si>
+    <t>单元格跨5列,置格式为&lt;td (         )&gt;&lt;/td &gt;</t>
+  </si>
+  <si>
+    <t>colspan='5'</t>
+  </si>
+  <si>
+    <t>当用鼠标左键单击时会触发（     ）事件</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>定义&lt;span&gt;&lt;/span &gt;标记样式可以通过定义3个属性来实现,它们分别是id 、class、（          ）</t>
+  </si>
+  <si>
+    <t>放置对象必须通过(         )事件属性来监听放置事件,并绑定相关事件处理函数接收被放置的对象。</t>
+  </si>
+  <si>
+    <t>浮动框架的name属性的值为"leftframe",在此浮动框架中打开"中国教育网(URI为http://www.edu.cn)"网站正确超链接是(             ) &lt;a href='http://www.edu.cn'</t>
+  </si>
+  <si>
+    <t>target='leftframe'&gt;中国教育网&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>热区area标记的shape 属性的取值为"rect"表示热区的状为（            ）</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <t>热区area标记的shape属性的取值为"poly"表示热区的形状为(             )</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>设置背景图像位置的属性是（           ）</t>
+  </si>
+  <si>
+    <t>设置放置对象必须通过ondragover和（    ）事件属性来监听是否允许拖放和放置</t>
+  </si>
+  <si>
+    <t>设置图层的层叠关系的提条件是需要将（           ）属性的值设置为absolute。</t>
+  </si>
+  <si>
+    <t>设置文档标题以及其他不在Web网页上显示的信息的开始标记是(    )，结束标记是(   )。</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;|&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>设置有序列表的start属性可以改变编号的起始值,该属性值的类型是（              ）。</t>
+  </si>
+  <si>
+    <t>设置有序列表项的属性（              ）后可以使该项前面的编号发生变化,但后续列表项前面的编号类型仍遵循原来的编号规则,只是顺序发了改变。</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>声明"border:2px double red;"的含义是(           )</t>
+  </si>
+  <si>
+    <t>border|2px|double|red</t>
+  </si>
+  <si>
+    <t>声明"border:2px double red;"的含义是(           ) border width is 2px|border style is double|border color is</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>声明"border:2px double red;"的含义是(           ) set a border with 2 pixels width, double line style, and red</t>
+  </si>
+  <si>
+    <t>使用 document 对象的(      )和innerHTML属性可以获取节点的内容。</t>
+  </si>
+  <si>
+    <t>innerText</t>
+  </si>
+  <si>
+    <t>使用Math对象的(  )属性可以获得圆周率。</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>世界上第一个网站的发明人是（      ） Tim</t>
+  </si>
+  <si>
+    <t>Berners-Lee</t>
+  </si>
+  <si>
+    <t>数据列表选项datalist标记通常与(      )标记结合在一起使用</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>网页标题会显示在浏览器的标题栏中,则网页标题可使用(       )标记来定义。</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+  </si>
+  <si>
+    <t>网站的首页文件通常命名为（     ）或（default.html）</t>
+  </si>
+  <si>
+    <t>index.html|default.html</t>
+  </si>
+  <si>
+    <t>位表达式5|7的结果分别为</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>一个最基本的DOM树通常由3种类型的节点组成,分别是元素节点、文本节点、 (           )</t>
+  </si>
+  <si>
+    <t>元素节点|文本节点|属性节点</t>
+  </si>
+  <si>
+    <t>一组单选按钮中每一个单选按钮的value属性值必须（    ）</t>
+  </si>
+  <si>
+    <t>一组复选框中复选框的name属性值必须(          )</t>
+  </si>
+  <si>
+    <t>相同</t>
+  </si>
+  <si>
+    <t>一组复选框中复选框的name属性值必须(          ) be</t>
+  </si>
+  <si>
+    <t>引用外部CSS文件有两种方式:一是通过link标记的（           ）属性;</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>与&lt;b&gt;&lt;/b&gt;标记功能相同的标记是(          );与&lt;i&gt;&lt;/i&gt;标记功能相同的标记是(         )</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;|&lt;em&gt;</t>
+  </si>
+  <si>
+    <t>在CSS中使用.p2{}定义样式,在HTML中p标记内使用(            )属性来引用样式。</t>
+  </si>
+  <si>
+    <t>在HTML文档中,ul标记之间必须使用&lt;li&gt;&lt;/li&gt;标记,作用是(           )。</t>
+  </si>
+  <si>
+    <t>定义列表项</t>
+  </si>
+  <si>
+    <t>在HTML文档中,ul标记之间必须使用&lt;li&gt;&lt;/li&gt;标记,作用是(           )。 define list</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>在HTML文件中,定义图层的标记是（             ）</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>在网页任何位置右击,从弹出的菜单中选择_（     ）命令或者使用（  F12   ）快捷键,可以查看网页的源代码。</t>
+  </si>
+  <si>
+    <t>查看源代码|F12</t>
+  </si>
+  <si>
+    <t>在网页中插入图像使用标记(          )</t>
+  </si>
+  <si>
+    <t>&lt;img&gt;</t>
+  </si>
+  <si>
+    <t>在指定页内超链接的时候,如果在某一位置使用了&lt;a_(           )="target1"&gt;书签&lt;/a&gt;语句定义书签名为targetl</t>
+  </si>
+  <si>
+    <t>在指定页内超链接的时候,如果在某一位置使用了&lt;a_name="target1"&gt;书签&lt;/a&gt;语句定义书签名为targetl,,那么当单击超链接&lt;a href=(        )&gt;书签链接&lt;/a&gt;时能够跳转到同页面中定义的书签target1位置上。</t>
+  </si>
+  <si>
+    <t>#target1</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html lang="zh-CN"&gt;
+&lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;title&gt;匾牌设计&lt;/title&gt;
+  &lt;style&gt;
+    /* 页面全局居中 */
+    body {
+      text-align: center; /* 所有内容水平居中 [[4, 6]] */
+      margin: 0; /* 移除默认外边距 */
+      padding: 0;
+    }
+    /* 图层样式 (#div0) */
+    #div0 {
+      width: 800px; /* 固定宽度 [[1, 4, 5]] */
+      height: 100px; /* 固定高度 [[1, 4, 5]] */
+      border: 20px outset #FF0000; /* 边框：20px宽度、outset线型、红色 [[4, 5]] */
+      padding: 20px; /* 内填充 20px [[4]] */
+      margin: 20px auto; /* 外边距：上下20px，左右自动（水平居中）[[4]] */
+      box-sizing: border-box; /* 确保边框和内填充不增加元素总尺寸 */
+    }
+    /* 段落样式 */
+    p {
+      font-style: italic; /* 斜体 [[4, 5]] */
+      font-weight: bolder; /* 特粗（bolder 比 bold 更粗）[[4, 5]] */
+      font-size: 70px; /* 字体大小 70px [[4, 5]] */
+      line-height: 1.5; /* 行高 1.5 倍（无单位值）[[4]] */
+      font-family: "隶书", "LiSu", serif; /* 隶书字体，添加回退字体 [[4, 9]] */
+      margin: 0; /* 移除段落默认外边距 */
+    }
+  &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+  &lt;div id="div0"&gt;
+    &lt;p&gt;海纳百川有容乃大&lt;/p&gt; &lt;!-- 段落内容无空格 [[4]] --&gt;
+  &lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>要编写一个如图12-11所示的登录页面，可以使用HTML和CSS来实现。以下是一个简单的示例代码： HTML部分: ```html &lt;!DOCTYPE html&gt; &lt;html&gt; &lt;head&gt; &lt;title&gt;登录页面&lt;/title&gt; &lt;link rel="stylesheet" type="text/css" href="styles.css"&gt; &lt;/head&gt; &lt;body&gt; &lt;div class="login-container"&gt; &lt;h2&gt;登录&lt;/h2&gt; &lt;form action="/login" method="post"&gt; &lt;input type="text" name="username" placeholder="用户名" required&gt; &lt;input type="password" name="password" placeholder="密码" required&gt; &lt;button type="submit"&gt;登录&lt;/button&gt; &lt;/form&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt; ``` CSS部分 (styles.css): ```css body { font-family: Arial, sans-serif; background-color: #f4f4f4; display: flex; justify-content: center; align-items: center; height: 100vh; margin: 0; } .login-container { background: white; padding: 20px; border-radius: 5px; box-shadow: 0 0 10px rgba(0, 0, 0, 0.1); } h2 { text-align: center; } input[type="text"], input[type="password"] { width: 100%; padding: 10px; margin: 10px 0; border: 1px solid #ddd; border-radius: 5px; } button { width: 100%; padding: 10px; background-color: #0056b3; color: white; border: none; border-radius: 5px; cursor: pointer; } button:hover { background-color: #004494; } ``` 这段代码创建了一个简单的登录页面，包含用户名和密码输入框以及一个登录按钮。你可以根据需要调整样式和布局以匹配图12-11的设计。</t>
-  </si>
-  <si>
-    <t>编写效果如图9-17所示的网页。网页由左、右两个图层构成,左边div设置背景图像,图像居中显示;右边div设置背景图像填充效果,添加有效果文字内容。设计要求: (1)HTML 中的 div 结构。 &lt; div id = "wrap"&gt; &lt; div id="pic"&gt;&lt;/div&gt; &lt; div id ="text"&gt; &lt;div id="title"&gt;木兰花令,拟古决绝词&lt;/div&gt;&lt;div id="author"&gt;纳兰性德&lt;/div&gt; &lt;div id= "content"&gt; &lt;p&gt;人生若只如初见,&lt;/p&gt; ... &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; (2)内容为"人生若只如初见,何事秋风悲画扇。等闲变却故人心,却道故心人易变。骊山雨罢清宵半,泪雨霖铃终不怨。何如薄幸锦衣郎,比翼连枝当日愿。" (3)样式说明。 #wrap:宽度900px、边界0auto、边框红色2px实线、上边界5px。div:文本居中对齐。#pic:宽度420px、高度300px、背景图像为ex8.jpg、不重复、位置居中、图像向左浮动背景颜色为#77A。#text:背景图像为ex8.jpg、向右浮动、宽度420px、高度500px、背景颜色为#77A、填充为10px、字体粗细为bold。#title:字体为"华文彩云"大小为32px#author:字号大小为12px、字体为黑体、文字右对齐、下边界为24px。p:字体为隶书、字号大小为24px、边界为2px、字符间距为0.5em、行高为1.5em、文字居中对齐</t>
-  </si>
-  <si>
-    <t>(1) HTML结构: &lt;div id="wrap"&gt; &lt;div id="pic"&gt;&lt;/div&gt; &lt;div id="text"&gt; &lt;div id="title"&gt;木兰花令,拟古决绝词&lt;/div&gt; &lt;div id="author"&gt;纳兰性德&lt;/div&gt; &lt;div id="content"&gt; &lt;p&gt;人生若只如初见,&lt;/p&gt; &lt;p&gt;何事秋风悲画扇。&lt;/p&gt; &lt;p&gt;等闲变却故人心,&lt;/p&gt; &lt;p&gt;却道故心人易变。&lt;/p&gt; &lt;p&gt;骊山雨罢清宵半,&lt;/p&gt; &lt;p&gt;泪雨霖铃终不怨。&lt;/p&gt; &lt;p&gt;何如薄幸锦衣郎,&lt;/p&gt; &lt;p&gt;比翼连枝当日愿。&lt;/p&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; (2) CSS样式: #wrap { width: 900px; margin: 0 auto; border: 2px solid red; margin-top: 5px; } div { text-align: center; } #pic { width: 420px; height: 300px; background-image: url('ex8.jpg'); background-repeat: no-repeat; background-position: center; float: left; background-color: #77A; } #text { background-image: url('ex8.jpg'); float: right; width: 420px; height: 500px; background-color: #77A; padding: 10px; font-weight: bold; } #title { font-family: "华文彩云"; font-size: 32px; } #author { font-size: 12px; font-family: "黑体"; text-align: right; margin-bottom: 24px; } p { font-family: "隶书"; font-size: 24px; margin: 2px; letter-spacing: 0.5em; line-height: 1.5em; text-align: center; }</t>
-  </si>
-  <si>
-    <t>简述定义列表与无序列表、有序列表的差异</t>
-  </si>
-  <si>
-    <t>(1) 定义列表（&lt;dl&gt;）用于展示术语及其定义，每个列表项包含一个术语（&lt;dt&gt;）和一个或多个定义（&lt;dd&gt;）。 (2) 无序列表（&lt;ul&gt;）用于展示没有特定顺序的项目，每个列表项（&lt;li&gt;）前通常有一个项目符号。 (3) 有序列表（&lt;ol&gt;）用于展示有特定顺序的项目，每个列表项（&lt;li&gt;）前有一个数字或字母表示顺序。</t>
-  </si>
-  <si>
-    <t>简述列表类型及常用列表。</t>
-  </si>
-  <si>
-    <t>(1) 列表类型：在编程中，列表是一种基本的数据结构，用于存储有序的元素集合。列表中的元素可以是任何数据类型，并且可以重复。列表通常是动态的，可以根据需要增加或减少元素。 (2) 常用列表：在不同编程语言中，列表的实现和名称可能有所不同。例如，在Python中，列表被称为'list'；在Java中，类似的实现有'ArrayList'和'LinkedList'；在C++中，标准模板库(STL)提供了'vector'和'list'等容器。</t>
-  </si>
-  <si>
-    <t>简述属性选择器有几种定义方式。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序列表（&lt;ul&gt;） ：列表项默认以圆点符号标记，无顺序要求，常用于导航菜单、项目清单等，是最常用的列表类型 。
+有序列表（&lt;ol&gt;） ：列表项以数字或字母顺序标记，适用于步骤说明、排名等需明确顺序的场景 。
+定义列表（&lt;dl&gt;） ：包含术语（&lt;dt&gt;）和描述（&lt;dd&gt;），用于解释名词或展示术语表，支持多级描述 。
+此外，列表支持嵌套（如无序列表中嵌套有序列表）以增强层级结构 ，并通过CSS可自定义符号样式（如方块、罗马数字等）。实际开发中，无序列表因灵活性高而最为常用 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1) 存在属性选择器：选择具有指定属性的元素，不论属性的值是什么。 (2) 值属性选择器：选择具有指定属性和值的元素。 (3) 子串匹配属性选择器：根据属性值的一部分来选择元素，包括^=（以...开头）、$=（以...结尾）、*=（包含...）和~=（属性值中包含一个单词）。 (4) 语言属性选择器：选择具有指定lang属性值的元素。</t>
-  </si>
-  <si>
-    <t>解释 &lt;fieldset&gt; 和 &lt;legend&gt; 标记的作用。</t>
-  </si>
-  <si>
-    <t>&lt;fieldset&gt; 标记用于将表单内的相关元素分组，创建一个方框将这些元素包围起来，以增强表单的结构性和可读性。&lt;legend&gt; 标记用于为 &lt;fieldset&gt; 元素定义标题，通常显示在方框的左上角，用于描述分组的内容或目的。</t>
-  </si>
-  <si>
-    <t>利用表单和表单元素设计简单的应聘页面,如图12-12所示,写出实现的HTML 代码</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt; &lt;html&gt; &lt;head&gt; &lt;title&gt;应聘页面&lt;/title&gt; &lt;/head&gt; &lt;body&gt; &lt;h1&gt;应聘申请表&lt;/h1&gt; &lt;form action="submit_application.php" method="post"&gt; &lt;label for="name"&gt;姓名:&lt;/label&gt; &lt;input type="text" id="name" name="name" required&gt;&lt;br&gt;&lt;br&gt; &lt;label for="email"&gt;电子邮件:&lt;/label&gt; &lt;input type="email" id="email" name="email" required&gt;&lt;br&gt;&lt;br&gt; &lt;label for="phone"&gt;电话:&lt;/label&gt; &lt;input type="tel" id="phone" name="phone" required&gt;&lt;br&gt;&lt;br&gt; &lt;label for="position"&gt;应聘职位:&lt;/label&gt; &lt;select id="position" name="position"&gt; &lt;option value="developer"&gt;开发工程师&lt;/option&gt; &lt;option value="designer"&gt;设计师&lt;/option&gt; &lt;option value="manager"&gt;项目经理&lt;/option&gt; &lt;/select&gt;&lt;br&gt;&lt;br&gt; &lt;label for="resume"&gt;上传简历:&lt;/label&gt; &lt;input type="file" id="resume" name="resume" accept=".pdf,.doc,.docx"&gt;&lt;br&gt;&lt;br&gt; &lt;label for="message"&gt;个人简介:&lt;/label&gt;&lt;br&gt; &lt;textarea id="message" name="message" rows="4" cols="50"&gt;&lt;/textarea&gt;&lt;br&gt;&lt;br&gt; &lt;input type="submit" value="提交申请"&gt; &lt;/form&gt; &lt;/body&gt; &lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>两个Web本地存储对象在使用中有什么区别?</t>
-  </si>
-  <si>
-    <t>(1) localStorage: 存储的数据没有过期时间，除非用户手动清除或通过JavaScript代码移除，否则数据会一直存在。 (2) sessionStorage: 存储的数据在页面会话结束时被清除，即当页面被关闭时，数据自动消失。</t>
-  </si>
-  <si>
-    <t>什么是document对象?如何获取文档对象上的元素?</t>
-  </si>
-  <si>
-    <t>(1) document对象是浏览器提供的JavaScript对象，代表当前加载的网页文档，它是DOM（文档对象模型）的入口点，允许开发者通过JavaScript与页面内容进行交互。 (2)可以通过多种方法获取文档对象上的元素，例如使用document.getElementById()获取具有特定ID的元素，使用document.getElementsByClassName()获取具有特定类名的所有元素，使用document.getElementsByTagName()获取特定标签名的所有元素，或者使用document.querySelector()和document.querySelectorAll()通过CSS选择器获取元素。</t>
-  </si>
-  <si>
-    <t>使用&lt;img&gt;标记可以在页面中插入图像,如何设置图像的高度和宽度?如何设替换文本?</t>
-  </si>
-  <si>
-    <t>(1) 使用height和width属性设置图像的高度和宽度，例如：&lt;img src='image.jpg' height='100' width='200'&gt; (2) 使用alt属性设置替换文本，例如：&lt;img src='image.jpg' alt='替换文本'&gt;</t>
-  </si>
-  <si>
-    <t>使用javascript语言，在自定义函数时应注意哪些事项?</t>
-  </si>
-  <si>
-    <t>(1) 函数命名应具有描述性，清晰表达函数用途。 (2) 避免使用全局变量，以减少副作用。 (3) 函数应尽量短小，一个函数只做一件事。 (4) 使用默认参数值可以提高函数的灵活性。 (5) 合理使用注释，解释复杂的逻辑或算法。 (6) 考虑函数的可重用性，避免硬编码。 (7) 使用箭头函数简化代码，但注意this的绑定问题。 (8) 正确处理错误和异常，避免程序崩溃。 (9) 考虑性能，避免在循环中创建函数。 (10) 使用模块化方式组织函数，便于管理和维护。</t>
-  </si>
-  <si>
-    <t>事件发生时对事件的处理方式有哪几种?</t>
-  </si>
-  <si>
-    <t>(1) 立即处理 (2) 延迟处理 (3) 忽略处理</t>
-  </si>
-  <si>
-    <t>试比较段落标记与块引用标记的相同点与不同点。</t>
-  </si>
-  <si>
-    <t>(1) 相同点：段落标记和块引用标记都是HTML中用于格式化文本的标签，它们都可以用来组织内容，使得网页结构更加清晰。 (2) 不同点：段落标记(&lt;p&gt;)用于定义段落，通常会自动在其前后创建一些空白；而块引用标记(&lt;blockquote&gt;)用于定义长的引用，浏览器通常会对块引用进行缩进处理，以区别于普通文本。</t>
-  </si>
-  <si>
-    <t>写出定义表格的所有常用标记,并说明它们各自的作用。</t>
-  </si>
-  <si>
-    <t>(1) &lt;table&gt;: 定义表格的开始和结束。(2) &lt;tr&gt;: 定义表格中的一行。(3) &lt;td&gt;: 定义表格中的一个单元格。(4) &lt;th&gt;: 定义表格中的表头单元格。(5) &lt;caption&gt;: 定义表格的标题。(6) &lt;thead&gt;: 定义表格的页眉。(7) &lt;tbody&gt;: 定义表格的主体。(8) &lt;tfoot&gt;: 定义表格的页脚。(9) &lt;colgroup&gt;: 定义表格中一组列的属性。(10) &lt;col&gt;: 定义表格中一个列的属性。</t>
-  </si>
-  <si>
-    <t>写出制作页面书签的步骤,并举例说明。</t>
-  </si>
-  <si>
-    <t>(1) 打开你想要添加书签的网页。 (2) 在浏览器的地址栏旁边找到书签图标（通常是一个星形图标）。 (3) 点击书签图标，然后选择“添加书签”或类似的选项。 (4) 在弹出的对话框中，你可以编辑书签的名称和选择保存的文件夹。 (5) 点击“保存”完成书签的添加。 举例说明：比如你在浏览一个经常访问的新闻网站，你可以按照上述步骤将其添加到书签中，以后只需点击书签即可快速访问该网站。</t>
-  </si>
-  <si>
-    <t>&lt;a&gt; 标签的 href 属性值可以是相对路径，也可以是绝对路径。</t>
-  </si>
-  <si>
-    <t>正确|错误</t>
-  </si>
-  <si>
-    <t>&lt;a&gt; 标签只能用于创建超链接到其他网页，不能链接到同一页面的不同位置。</t>
-  </si>
-  <si>
-    <t>&lt;body&gt; 标签内可以包含 &lt;head&gt; 标签。</t>
-  </si>
-  <si>
-    <t>&lt;canvas&gt; 元素只能绘制 2D 图形，无法实现 3D 效果。</t>
-  </si>
-  <si>
-    <t>&lt;div&gt; 和 &lt;span&gt; 元素不能同时应用多个 CSS 类。</t>
-  </si>
-  <si>
-    <t>&lt;div&gt; 元素和 &lt;span&gt; 元素的语义是相同的，在使用时可以随意替换。</t>
-  </si>
-  <si>
-    <t>&lt;img&gt; 标签的 title 属性和 alt 属性的作用完全相同，都只是在鼠标悬停时显示提示信息。</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;标签用于定义段落，每个&lt;p&gt;标签创建的段落会与前后段落自动产生间距。</t>
-  </si>
-  <si>
-    <t>&lt;title&gt; 标签必须放在 &lt;head&gt; 标签内部，用于定义网页的标题，显示在浏览器的标题栏或标签页上。</t>
-  </si>
-  <si>
-    <t>&lt;video&gt; 标签只能播放本地视频文件，不能播放网络视频。</t>
-  </si>
-  <si>
-    <t>CSS 用于控制网页的外观和样式，能够将网页的结构（HTML）和表现分离。</t>
-  </si>
-  <si>
-    <t>CSS3 的 @media 规则用于响应式设计，可根据不同的设备屏幕尺寸应用不同的样式。</t>
-  </si>
-  <si>
-    <t>CSS3 的 transform 属性可以实现元素的平移、旋转、缩放等效果，但不能实现倾斜效果。</t>
-  </si>
-  <si>
-    <t>dblclick 事件和 click 事件的触发条件相同。</t>
-  </si>
-  <si>
-    <t>div 元素只能使用 id 选择器来设置样式，不能使用类选择器。</t>
-  </si>
-  <si>
-    <t>document.createElement 方法用于创建新的 HTML 元素节点。</t>
-  </si>
-  <si>
-    <t>document.getElementsByTagName 方法返回一个 HTML 元素集合，该集合是动态的。</t>
-  </si>
-  <si>
-    <t>DOM 节点的 innerHTML 属性只能用于获取元素的文本内容，不能用于设置。</t>
-  </si>
-  <si>
-    <t>font - family 属性只能设置一种字体，不能设置多种字体。</t>
-  </si>
-  <si>
-    <t>for 循环可以用于遍历数组中的元素。</t>
-  </si>
-  <si>
-    <t>HTML 是用于描述网页结构的标记语言，只能通过手写代码编写，不能使用可视化工具生成。</t>
-  </si>
-  <si>
-    <t>HTML5 的 Geolocation API 能精确获取用户的地理位置，误差几乎为零。</t>
-  </si>
-  <si>
-    <t>HTML5 的 video 元素支持所有常见的视频格式。</t>
-  </si>
-  <si>
-    <t>HTML5 的 Web Storage（localStorage 和 sessionStorage）提供了在客户端存储数据的功能，存储的数据不会随着页面的刷新而丢失（sessionStorage 在会话结束前）。</t>
-  </si>
-  <si>
-    <t>HTML5 的 Web Workers 允许在后台线程中运行脚本，避免阻塞主线程，提高页面的响应性能。</t>
-  </si>
-  <si>
-    <t>if...else 语句用于根据条件执行不同的代码块。</t>
-  </si>
-  <si>
-    <t>JavaScript 是一种基于原型的面向对象编程语言，同时也支持函数式编程特性。</t>
-  </si>
-  <si>
-    <t>JavaScript 中的对象是键值对的集合，键必须是字符串类型。</t>
-  </si>
-  <si>
-    <t>location.href 属性可以获取或设置当前浏览器窗口的 URL。</t>
-  </si>
-  <si>
-    <t>mouseenter 事件和 mousemove 事件的功能一样。</t>
-  </si>
-  <si>
-    <t>text-align: center 可以使块级元素内的文本水平居中对齐。</t>
-  </si>
-  <si>
-    <t>Web Storage 可以存储任意大小的数据，不受任何限制。</t>
-  </si>
-  <si>
-    <t>Web Workers 可以直接访问 DOM 元素。</t>
-  </si>
-  <si>
-    <t>z - index 属性只对具有 position 属性值为 static 的元素有效。</t>
-  </si>
-  <si>
-    <t>表格的边框只能通过 HTML 的 border 属性来设置，不能使用 CSS 来设置。</t>
-  </si>
-  <si>
-    <t>多个 &lt;div&gt; 元素会垂直堆叠显示，而多个 &lt;span&gt; 元素会水平排列显示。</t>
-  </si>
-  <si>
-    <t>渐进式 Web 应用（PWA）只能在支持 Service Worker 的浏览器中运行。</t>
-  </si>
-  <si>
-    <t>可以使用 document.getElementById 方法通过元素的 ID 属性获取单个 HTML 元素节点。</t>
-  </si>
-  <si>
-    <t>可以使用 position 属性来精确定位 div 元素在页面中的位置，如 absolute、relative 等定位方式。</t>
-  </si>
-  <si>
-    <t>可以通过 CSS 的 width 属性来设置整个表格的宽度，但不能设置单个单元格的宽度。</t>
-  </si>
-  <si>
-    <t>可以通过 removeEventListener 方法移除之前添加的事件监听器，但需要确保传入的事件类型、处理函数和添加时一致。</t>
-  </si>
-  <si>
-    <t>可以为 &lt;iframe&gt; 标签添加 srcdoc 属性，直接在其中嵌入 HTML 代码，而不是引用外部页面。</t>
-  </si>
-  <si>
-    <t>密码输入框（&lt;input type="password"&gt;）的 value 属性也可以在页面中直接查看和修改。</t>
-  </si>
-  <si>
-    <t>使用 clear 属性可以清除元素浮动带来的影响，防止布局混乱。</t>
-  </si>
-  <si>
-    <t>使用 removeChild 方法可以从父节点中移除指定的子节点。</t>
-  </si>
-  <si>
-    <t>事件是浏览器中发生的动作，如点击、鼠标移动、键盘按键等，JavaScript 可以监听这些事件并执行相应的代码。</t>
-  </si>
-  <si>
-    <t>为 &lt;img&gt; 标签设置 width 和 height 属性时，如果只设置一个属性，另一个属性会自动按比例调整。</t>
-  </si>
-  <si>
-    <t>文本输入框（&lt;input type="text"&gt;）的 value 属性用于设置输入框的初始值。</t>
-  </si>
-  <si>
-    <t>无序列表和有序列表都可以进行嵌套，即一个列表项中可以包含另一个列表。</t>
-  </si>
-  <si>
-    <t>一个元素只能绑定一个 click 事件监听器。</t>
-  </si>
-  <si>
-    <t>有序列表 &lt;ol&gt; 可以通过 start 属性指定列表项开始的编号。</t>
-  </si>
-  <si>
-    <t>有序列表的编号只能是数字，不能改为字母或罗马数字。</t>
-  </si>
-  <si>
-    <t>在 HTML 中，&lt;a&gt; 标签用于创建超链接，href 属性是必需的，它指定了链接的目标地址。</t>
-  </si>
-  <si>
-    <t>在 HTML5 中，表单元素新增了一些属性，如 placeholder、required 等，以增强表单的功能和用户体验。</t>
-  </si>
-  <si>
-    <t>在事件处理函数中，this 关键字通常指向触发该事件的元素。</t>
-  </si>
-  <si>
-    <t>&lt;select&gt;标记通常必须与（       ）标记配合使用。</t>
-  </si>
-  <si>
-    <t>&lt;option&gt;</t>
-  </si>
-  <si>
-    <t>HTML5新增（      ）类型的input 元素可以产生带有微调按钮的输入域。</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>HTML5新增媒体元素除了可以通过src标记加载媒体文件的URL外，还可以通过（            ）标记加载不同格式的媒体文件,以满足浏览器支持的需要。</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>HTML文档是由（      ）构成的文本文件。</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>HTML文档是由（      ）构成的文本文件。 HTML</t>
-  </si>
-  <si>
-    <t>HTML中的标记分为（   ）标记和双标记两种。</t>
-  </si>
-  <si>
-    <t>单</t>
-  </si>
-  <si>
-    <t>JavaScript中的事件处理方式有3种,分别是（） JavaScript属性的动态绑定、特定对象的特定事件。</t>
-  </si>
-  <si>
-    <t>HTML事件处理程序|DOM0级事件处理程序|DOM2级事件处理程序</t>
-  </si>
-  <si>
-    <t>JavaScript中的事件处理方式有3种,分别是（） JavaScript属性的动态绑定、特定对象的特定事件。 内联事件处理程序|DOM Level 0事件处理程序|DOM Level</t>
-  </si>
-  <si>
-    <t>2事件处理程序</t>
-  </si>
-  <si>
-    <t>JavaScript中的消息对话框分为告警框、（      ）、提示框等三种。</t>
-  </si>
-  <si>
-    <t>告警框|确认框|提示框</t>
-  </si>
-  <si>
-    <t>表达式18/0的值为（      ）</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>表格的行的标记是（             ）</t>
-  </si>
-  <si>
-    <t>&lt;tr&gt;</t>
-  </si>
-  <si>
-    <t>单元格跨3行,设置格式为&lt;td="(       )"&gt;&lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>rowspan=3</t>
-  </si>
-  <si>
-    <t>单元格跨5列,置格式为&lt;td (         )&gt;&lt;/td &gt;</t>
-  </si>
-  <si>
-    <t>colspan='5'</t>
-  </si>
-  <si>
-    <t>当用鼠标左键单击时会触发（     ）事件</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>定义&lt;span&gt;&lt;/span &gt;标记样式可以通过定义3个属性来实现,它们分别是id 、class、（          ）</t>
-  </si>
-  <si>
-    <t>放置对象必须通过(         )事件属性来监听放置事件,并绑定相关事件处理函数接收被放置的对象。</t>
-  </si>
-  <si>
-    <t>浮动框架的name属性的值为"leftframe",在此浮动框架中打开"中国教育网(URI为http://www.edu.cn)"网站正确超链接是(             ) &lt;a href='http://www.edu.cn'</t>
-  </si>
-  <si>
-    <t>target='leftframe'&gt;中国教育网&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>热区area标记的shape 属性的取值为"rect"表示热区的状为（            ）</t>
-  </si>
-  <si>
-    <t>rectangular</t>
-  </si>
-  <si>
-    <t>热区area标记的shape属性的取值为"poly"表示热区的形状为(             )</t>
-  </si>
-  <si>
-    <t>polygon</t>
-  </si>
-  <si>
-    <t>设置背景图像位置的属性是（           ）</t>
-  </si>
-  <si>
-    <t>设置放置对象必须通过ondragover和（    ）事件属性来监听是否允许拖放和放置</t>
-  </si>
-  <si>
-    <t>设置图层的层叠关系的提条件是需要将（           ）属性的值设置为absolute。</t>
-  </si>
-  <si>
-    <t>设置文档标题以及其他不在Web网页上显示的信息的开始标记是(    )，结束标记是(   )。</t>
-  </si>
-  <si>
-    <t>&lt;head&gt;|&lt;/head&gt;</t>
-  </si>
-  <si>
-    <t>设置有序列表的start属性可以改变编号的起始值,该属性值的类型是（              ）。</t>
-  </si>
-  <si>
-    <t>设置有序列表项的属性（              ）后可以使该项前面的编号发生变化,但后续列表项前面的编号类型仍遵循原来的编号规则,只是顺序发了改变。</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>声明"border:2px double red;"的含义是(           )</t>
-  </si>
-  <si>
-    <t>border|2px|double|red</t>
-  </si>
-  <si>
-    <t>声明"border:2px double red;"的含义是(           ) border width is 2px|border style is double|border color is</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>声明"border:2px double red;"的含义是(           ) set a border with 2 pixels width, double line style, and red</t>
-  </si>
-  <si>
-    <t>使用 document 对象的(      )和innerHTML属性可以获取节点的内容。</t>
-  </si>
-  <si>
-    <t>innerText</t>
-  </si>
-  <si>
-    <t>使用Math对象的(  )属性可以获得圆周率。</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>世界上第一个网站的发明人是（      ） Tim</t>
-  </si>
-  <si>
-    <t>Berners-Lee</t>
-  </si>
-  <si>
-    <t>数据列表选项datalist标记通常与(      )标记结合在一起使用</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>网页标题会显示在浏览器的标题栏中,则网页标题可使用(       )标记来定义。</t>
-  </si>
-  <si>
-    <t>&lt;title&gt;</t>
-  </si>
-  <si>
-    <t>网站的首页文件通常命名为（     ）或（default.html）</t>
-  </si>
-  <si>
-    <t>index.html|default.html</t>
-  </si>
-  <si>
-    <t>位表达式5|7的结果分别为</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>一个最基本的DOM树通常由3种类型的节点组成,分别是元素节点、文本节点、 (           )</t>
-  </si>
-  <si>
-    <t>元素节点|文本节点|属性节点</t>
-  </si>
-  <si>
-    <t>一组单选按钮中每一个单选按钮的value属性值必须（    ）</t>
-  </si>
-  <si>
-    <t>一组复选框中复选框的name属性值必须(          )</t>
-  </si>
-  <si>
-    <t>相同</t>
-  </si>
-  <si>
-    <t>一组复选框中复选框的name属性值必须(          ) be</t>
-  </si>
-  <si>
-    <t>引用外部CSS文件有两种方式:一是通过link标记的（           ）属性;</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
-    <t>与&lt;b&gt;&lt;/b&gt;标记功能相同的标记是(          );与&lt;i&gt;&lt;/i&gt;标记功能相同的标记是(         )</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;|&lt;em&gt;</t>
-  </si>
-  <si>
-    <t>在CSS中使用.p2{}定义样式,在HTML中p标记内使用(            )属性来引用样式。</t>
-  </si>
-  <si>
-    <t>在HTML文档中,ul标记之间必须使用&lt;li&gt;&lt;/li&gt;标记,作用是(           )。</t>
-  </si>
-  <si>
-    <t>定义列表项</t>
-  </si>
-  <si>
-    <t>在HTML文档中,ul标记之间必须使用&lt;li&gt;&lt;/li&gt;标记,作用是(           )。 define list</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>在HTML文件中,定义图层的标记是（             ）</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>在网页任何位置右击,从弹出的菜单中选择_（     ）命令或者使用（  F12   ）快捷键,可以查看网页的源代码。</t>
-  </si>
-  <si>
-    <t>查看源代码|F12</t>
-  </si>
-  <si>
-    <t>在网页中插入图像使用标记(          )</t>
-  </si>
-  <si>
-    <t>&lt;img&gt;</t>
-  </si>
-  <si>
-    <t>在指定页内超链接的时候,如果在某一位置使用了&lt;a_(           )="target1"&gt;书签&lt;/a&gt;语句定义书签名为targetl</t>
-  </si>
-  <si>
-    <t>在指定页内超链接的时候,如果在某一位置使用了&lt;a_name="target1"&gt;书签&lt;/a&gt;语句定义书签名为targetl,,那么当单击超链接&lt;a href=(        )&gt;书签链接&lt;/a&gt;时能够跳转到同页面中定义的书签target1位置上。</t>
-  </si>
-  <si>
-    <t>#target1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2338,10 +2298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2672,35 +2635,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
         <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
         <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>229</v>
@@ -2714,7 +2677,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>232</v>
@@ -2728,21 +2691,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
         <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>240</v>
@@ -2756,21 +2719,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
         <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>235</v>
@@ -2784,7 +2747,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
         <v>237</v>
@@ -2798,49 +2761,49 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
         <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>242</v>
@@ -2854,7 +2817,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
         <v>247</v>
@@ -2868,7 +2831,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
         <v>245</v>
@@ -2882,7 +2845,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -2896,7 +2859,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>253</v>
@@ -2910,21 +2873,21 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
         <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
         <v>249</v>
@@ -2938,21 +2901,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
         <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B22" t="s">
         <v>255</v>
@@ -2966,7 +2929,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B23" t="s">
         <v>257</v>
@@ -2980,2244 +2943,2048 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C25" t="s">
         <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C26" t="s">
         <v>243</v>
       </c>
       <c r="D26" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C27" t="s">
         <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C28" t="s">
         <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C29" t="s">
         <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B30" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
         <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
         <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B32" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C32" t="s">
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
         <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C34" t="s">
         <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C35" t="s">
         <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s">
         <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C40" t="s">
         <v>238</v>
       </c>
       <c r="D40" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C41" t="s">
         <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
         <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C43" t="s">
         <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
         <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C45" t="s">
         <v>243</v>
       </c>
       <c r="D45" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C46" t="s">
         <v>243</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
         <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C48" t="s">
         <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s">
         <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C50" t="s">
         <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C51" t="s">
         <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
         <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C53" t="s">
         <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C54" t="s">
         <v>230</v>
       </c>
       <c r="D54" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C55" t="s">
         <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C56" t="s">
         <v>230</v>
       </c>
       <c r="D56" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B57" t="s">
-        <v>468</v>
-      </c>
-      <c r="C57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D57" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C58" t="s">
         <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C59" t="s">
         <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C60" t="s">
         <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C61" t="s">
         <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>411</v>
-      </c>
-      <c r="B62" t="s">
-        <v>385</v>
-      </c>
-      <c r="C62" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C63" t="s">
         <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C64" t="s">
         <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
         <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C66" t="s">
         <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>411</v>
-      </c>
-      <c r="B67" t="s">
-        <v>265</v>
-      </c>
-      <c r="C67" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>411</v>
-      </c>
-      <c r="B68" t="s">
-        <v>476</v>
-      </c>
-      <c r="C68" t="s">
-        <v>238</v>
-      </c>
-      <c r="D68" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
         <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="C70" t="s">
         <v>243</v>
       </c>
       <c r="D70" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>411</v>
-      </c>
-      <c r="B71" t="s">
-        <v>259</v>
-      </c>
-      <c r="C71" t="s">
-        <v>233</v>
-      </c>
-      <c r="D71" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>411</v>
-      </c>
-      <c r="B72" t="s">
-        <v>480</v>
-      </c>
-      <c r="C72" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>411</v>
-      </c>
-      <c r="B74" t="s">
-        <v>482</v>
-      </c>
-      <c r="C74" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" t="s">
-        <v>483</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
         <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
         <v>243</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B77" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C77" t="s">
         <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>411</v>
-      </c>
-      <c r="B78" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D78" t="s">
-        <v>274</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B79" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C79" t="s">
         <v>233</v>
       </c>
       <c r="D79" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C80" t="s">
         <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="C81" t="s">
         <v>243</v>
       </c>
       <c r="D81" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>411</v>
-      </c>
-      <c r="B82" t="s">
-        <v>301</v>
-      </c>
-      <c r="C82" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" t="s">
-        <v>302</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C83" t="s">
         <v>233</v>
       </c>
       <c r="D83" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B84" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
         <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B85" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
         <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B86" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
         <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
         <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
         <v>230</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="C90" t="s">
         <v>243</v>
       </c>
       <c r="D90" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C91" t="s">
         <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B92" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="C92" t="s">
         <v>238</v>
       </c>
       <c r="D92" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>411</v>
-      </c>
-      <c r="B93" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" t="s">
-        <v>238</v>
-      </c>
-      <c r="D93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>411</v>
-      </c>
-      <c r="B94" t="s">
-        <v>498</v>
-      </c>
-      <c r="C94" t="s">
-        <v>238</v>
-      </c>
-      <c r="D94" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
         <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B96" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C96" t="s">
         <v>230</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B97" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="C97" t="s">
         <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C98" t="s">
         <v>238</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="C99" t="s">
         <v>230</v>
       </c>
       <c r="D99" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
         <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C101" t="s">
         <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
         <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
         <v>243</v>
       </c>
       <c r="D103" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B104" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C104" t="s">
         <v>243</v>
       </c>
       <c r="D104" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>411</v>
-      </c>
-      <c r="B105" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" t="s">
-        <v>238</v>
-      </c>
-      <c r="D105" t="s">
-        <v>314</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B106" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C106" t="s">
         <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
         <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C108" t="s">
         <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
         <v>243</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
         <v>230</v>
       </c>
       <c r="D110" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C111" t="s">
         <v>230</v>
       </c>
       <c r="D111" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
         <v>230</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
         <v>238</v>
       </c>
       <c r="D113" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
         <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B115" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C115" t="s">
         <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
         <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C117" t="s">
         <v>243</v>
       </c>
       <c r="D117" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C118" t="s">
         <v>230</v>
       </c>
       <c r="D118" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B119" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C119" t="s">
         <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C120" t="s">
         <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B121" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C121" t="s">
         <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C122" t="s">
         <v>243</v>
       </c>
       <c r="D122" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>411</v>
-      </c>
-      <c r="B123" t="s">
-        <v>520</v>
-      </c>
-      <c r="C123" t="s">
-        <v>238</v>
-      </c>
-      <c r="D123" t="s">
-        <v>521</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s">
         <v>230</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B125" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="C125" t="s">
         <v>230</v>
       </c>
       <c r="D125" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s">
         <v>243</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B127" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s">
         <v>233</v>
       </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B128" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C128" t="s">
         <v>243</v>
       </c>
       <c r="D128" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B129" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C129" t="s">
         <v>233</v>
       </c>
       <c r="D129" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C130" t="s">
         <v>238</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>411</v>
-      </c>
-      <c r="B131" t="s">
-        <v>528</v>
-      </c>
-      <c r="C131" t="s">
-        <v>243</v>
-      </c>
-      <c r="D131" t="s">
-        <v>529</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s">
         <v>230</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="C133" t="s">
         <v>233</v>
       </c>
       <c r="D133" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C134" t="s">
         <v>243</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s">
         <v>243</v>
       </c>
       <c r="D135" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="C136" t="s">
         <v>233</v>
       </c>
       <c r="D136" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C137" t="s">
         <v>230</v>
       </c>
       <c r="D137" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B138" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
       </c>
       <c r="D138" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="C139" t="s">
         <v>243</v>
       </c>
       <c r="D139" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B140" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C140" t="s">
         <v>243</v>
       </c>
       <c r="D140" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B141" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C141" t="s">
         <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B142" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="C142" t="s">
         <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C143" t="s">
         <v>238</v>
       </c>
       <c r="D143" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C144" t="s">
         <v>243</v>
       </c>
       <c r="D144" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B145" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C145" t="s">
         <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="C146" t="s">
         <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C147" t="s">
         <v>243</v>
       </c>
       <c r="D147" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B148" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="C148" t="s">
         <v>238</v>
       </c>
       <c r="D148" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B149" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="C149" t="s">
         <v>230</v>
       </c>
       <c r="D149" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C150" t="s">
         <v>243</v>
       </c>
       <c r="D150" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B151" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C151" t="s">
         <v>230</v>
       </c>
       <c r="D151" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="C152" t="s">
         <v>238</v>
       </c>
       <c r="D152" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B153" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C153" t="s">
         <v>238</v>
       </c>
       <c r="D153" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B154" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
       </c>
       <c r="D154" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B155" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C155" t="s">
         <v>230</v>
       </c>
       <c r="D155" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B156" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C156" t="s">
         <v>230</v>
       </c>
       <c r="D156" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B157" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="C157" t="s">
         <v>230</v>
       </c>
       <c r="D157" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B158" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C158" t="s">
         <v>238</v>
       </c>
       <c r="D158" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="C159" t="s">
         <v>238</v>
       </c>
       <c r="D159" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B160" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s">
         <v>230</v>
       </c>
       <c r="D160" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="C161" t="s">
         <v>230</v>
       </c>
       <c r="D161" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C162" t="s">
         <v>233</v>
       </c>
       <c r="D162" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B163" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
       </c>
       <c r="D163" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B164" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C164" t="s">
         <v>233</v>
       </c>
       <c r="D164" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B165" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="C165" t="s">
         <v>233</v>
       </c>
       <c r="D165" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B166" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s">
         <v>243</v>
       </c>
       <c r="D166" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B167" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C167" t="s">
         <v>230</v>
       </c>
       <c r="D167" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B168" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
       </c>
       <c r="D168" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B169" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
       </c>
       <c r="D169" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B170" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="C170" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B171" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="C171" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B172" t="s">
-        <v>575</v>
-      </c>
-      <c r="C172" t="s">
-        <v>576</v>
+        <v>547</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B173" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="C173" t="s">
-        <v>578</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B174" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="C174" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B175" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="C175" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
-      </c>
-      <c r="C176" t="s">
-        <v>584</v>
+        <v>553</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B177" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="C177" t="s">
-        <v>586</v>
+        <v>720</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B178" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="C178" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="C179" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B180" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="C180" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B181" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="C181" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B182" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="C182" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B183" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="C183" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B184" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="C184" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
+        <v>542</v>
+      </c>
+      <c r="B185" t="s">
+        <v>569</v>
+      </c>
+      <c r="C185" t="s">
         <v>570</v>
-      </c>
-      <c r="B185" t="s">
-        <v>601</v>
-      </c>
-      <c r="C185" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B186" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="C186" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B187" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="C187" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
@@ -5225,13 +4992,13 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
@@ -5239,13 +5006,13 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
@@ -5253,13 +5020,13 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -5272,19 +5039,22 @@
       <c r="C191" t="s">
         <v>6</v>
       </c>
+      <c r="D191" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
@@ -5292,13 +5062,13 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
@@ -5306,13 +5076,13 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
@@ -5325,6 +5095,9 @@
       <c r="C195" t="s">
         <v>9</v>
       </c>
+      <c r="D195" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
@@ -5336,6 +5109,9 @@
       <c r="C196" t="s">
         <v>6</v>
       </c>
+      <c r="D196" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
@@ -5347,6 +5123,9 @@
       <c r="C197" t="s">
         <v>6</v>
       </c>
+      <c r="D197" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
@@ -5358,6 +5137,9 @@
       <c r="C198" t="s">
         <v>9</v>
       </c>
+      <c r="D198" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
@@ -5369,6 +5151,9 @@
       <c r="C199" t="s">
         <v>9</v>
       </c>
+      <c r="D199" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
@@ -5380,19 +5165,22 @@
       <c r="C200" t="s">
         <v>6</v>
       </c>
+      <c r="D200" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -5405,6 +5193,9 @@
       <c r="C202" t="s">
         <v>9</v>
       </c>
+      <c r="D202" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
@@ -5416,6 +5207,9 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
+      <c r="D203" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
@@ -5427,6 +5221,9 @@
       <c r="C204" t="s">
         <v>9</v>
       </c>
+      <c r="D204" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
@@ -5438,19 +5235,22 @@
       <c r="C205" t="s">
         <v>9</v>
       </c>
+      <c r="D205" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -5463,6 +5263,9 @@
       <c r="C207" t="s">
         <v>6</v>
       </c>
+      <c r="D207" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
@@ -5474,6 +5277,9 @@
       <c r="C208" t="s">
         <v>9</v>
       </c>
+      <c r="D208" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
@@ -5485,19 +5291,22 @@
       <c r="C209" t="s">
         <v>9</v>
       </c>
+      <c r="D209" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -5510,19 +5319,22 @@
       <c r="C211" t="s">
         <v>9</v>
       </c>
+      <c r="D211" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -5535,6 +5347,9 @@
       <c r="C213" t="s">
         <v>9</v>
       </c>
+      <c r="D213" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
@@ -5546,6 +5361,9 @@
       <c r="C214" t="s">
         <v>9</v>
       </c>
+      <c r="D214" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
@@ -5557,6 +5375,9 @@
       <c r="C215" t="s">
         <v>9</v>
       </c>
+      <c r="D215" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
@@ -5568,6 +5389,9 @@
       <c r="C216" t="s">
         <v>9</v>
       </c>
+      <c r="D216" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
@@ -5579,6 +5403,9 @@
       <c r="C217" t="s">
         <v>6</v>
       </c>
+      <c r="D217" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
@@ -5590,6 +5417,9 @@
       <c r="C218" t="s">
         <v>6</v>
       </c>
+      <c r="D218" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
@@ -5601,6 +5431,9 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
+      <c r="D219" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
@@ -5612,19 +5445,22 @@
       <c r="C220" t="s">
         <v>9</v>
       </c>
+      <c r="D220" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -5632,13 +5468,13 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -5646,13 +5482,13 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -5665,6 +5501,9 @@
       <c r="C224" t="s">
         <v>9</v>
       </c>
+      <c r="D224" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
@@ -5676,6 +5515,9 @@
       <c r="C225" t="s">
         <v>6</v>
       </c>
+      <c r="D225" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
@@ -5687,6 +5529,9 @@
       <c r="C226" t="s">
         <v>6</v>
       </c>
+      <c r="D226" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
@@ -5698,6 +5543,9 @@
       <c r="C227" t="s">
         <v>6</v>
       </c>
+      <c r="D227" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
@@ -5709,19 +5557,22 @@
       <c r="C228" t="s">
         <v>9</v>
       </c>
+      <c r="D228" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
@@ -5734,19 +5585,22 @@
       <c r="C230" t="s">
         <v>6</v>
       </c>
+      <c r="D230" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
@@ -5754,13 +5608,13 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
@@ -5773,19 +5627,22 @@
       <c r="C233" t="s">
         <v>9</v>
       </c>
+      <c r="D233" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
@@ -5798,19 +5655,22 @@
       <c r="C235" t="s">
         <v>9</v>
       </c>
+      <c r="D235" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -5823,6 +5683,9 @@
       <c r="C237" t="s">
         <v>6</v>
       </c>
+      <c r="D237" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
@@ -5834,6 +5697,9 @@
       <c r="C238" t="s">
         <v>6</v>
       </c>
+      <c r="D238" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
@@ -5845,19 +5711,22 @@
       <c r="C239" t="s">
         <v>6</v>
       </c>
+      <c r="D239" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
@@ -5870,19 +5739,22 @@
       <c r="C241" t="s">
         <v>9</v>
       </c>
+      <c r="D241" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
@@ -5890,13 +5762,13 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
@@ -5904,13 +5776,13 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
@@ -5918,13 +5790,13 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
@@ -5932,13 +5804,13 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
@@ -5946,13 +5818,13 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -5965,6 +5837,9 @@
       <c r="C248" t="s">
         <v>9</v>
       </c>
+      <c r="D248" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
@@ -5976,6 +5851,9 @@
       <c r="C249" t="s">
         <v>9</v>
       </c>
+      <c r="D249" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
@@ -5987,6 +5865,9 @@
       <c r="C250" t="s">
         <v>6</v>
       </c>
+      <c r="D250" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
@@ -5998,6 +5879,9 @@
       <c r="C251" t="s">
         <v>9</v>
       </c>
+      <c r="D251" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
@@ -6009,6 +5893,9 @@
       <c r="C252" t="s">
         <v>9</v>
       </c>
+      <c r="D252" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
@@ -6020,19 +5907,22 @@
       <c r="C253" t="s">
         <v>9</v>
       </c>
+      <c r="D253" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -6040,13 +5930,13 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
@@ -6054,13 +5944,13 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
       </c>
       <c r="D256" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
@@ -6073,6 +5963,9 @@
       <c r="C257" t="s">
         <v>6</v>
       </c>
+      <c r="D257" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
@@ -6084,6 +5977,9 @@
       <c r="C258" t="s">
         <v>6</v>
       </c>
+      <c r="D258" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
@@ -6095,6 +5991,9 @@
       <c r="C259" t="s">
         <v>9</v>
       </c>
+      <c r="D259" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
@@ -6106,6 +6005,9 @@
       <c r="C260" t="s">
         <v>9</v>
       </c>
+      <c r="D260" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
@@ -6117,6 +6019,9 @@
       <c r="C261" t="s">
         <v>6</v>
       </c>
+      <c r="D261" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
@@ -6128,6 +6033,9 @@
       <c r="C262" t="s">
         <v>9</v>
       </c>
+      <c r="D262" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
@@ -6139,6 +6047,9 @@
       <c r="C263" t="s">
         <v>9</v>
       </c>
+      <c r="D263" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
@@ -6150,19 +6061,22 @@
       <c r="C264" t="s">
         <v>9</v>
       </c>
+      <c r="D264" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="C265" t="s">
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
@@ -6175,6 +6089,9 @@
       <c r="C266" t="s">
         <v>9</v>
       </c>
+      <c r="D266" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
@@ -6186,19 +6103,22 @@
       <c r="C267" t="s">
         <v>9</v>
       </c>
+      <c r="D267" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
@@ -6211,6 +6131,9 @@
       <c r="C269" t="s">
         <v>6</v>
       </c>
+      <c r="D269" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
@@ -6222,6 +6145,9 @@
       <c r="C270" t="s">
         <v>6</v>
       </c>
+      <c r="D270" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
@@ -6233,6 +6159,9 @@
       <c r="C271" t="s">
         <v>6</v>
       </c>
+      <c r="D271" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
@@ -6244,6 +6173,9 @@
       <c r="C272" t="s">
         <v>6</v>
       </c>
+      <c r="D272" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
@@ -6255,6 +6187,9 @@
       <c r="C273" t="s">
         <v>9</v>
       </c>
+      <c r="D273" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
@@ -6266,6 +6201,9 @@
       <c r="C274" t="s">
         <v>6</v>
       </c>
+      <c r="D274" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
@@ -6277,19 +6215,22 @@
       <c r="C275" t="s">
         <v>9</v>
       </c>
+      <c r="D275" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -6302,19 +6243,22 @@
       <c r="C277" t="s">
         <v>9</v>
       </c>
+      <c r="D277" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -6322,13 +6266,13 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -6341,19 +6285,22 @@
       <c r="C280" t="s">
         <v>6</v>
       </c>
+      <c r="D280" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
@@ -6366,19 +6313,22 @@
       <c r="C282" t="s">
         <v>9</v>
       </c>
+      <c r="D282" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -6391,6 +6341,9 @@
       <c r="C284" t="s">
         <v>6</v>
       </c>
+      <c r="D284" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
@@ -6402,6 +6355,9 @@
       <c r="C285" t="s">
         <v>9</v>
       </c>
+      <c r="D285" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
@@ -6413,6 +6369,9 @@
       <c r="C286" t="s">
         <v>6</v>
       </c>
+      <c r="D286" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
@@ -6424,6 +6383,9 @@
       <c r="C287" t="s">
         <v>6</v>
       </c>
+      <c r="D287" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
@@ -6435,6 +6397,9 @@
       <c r="C288" t="s">
         <v>6</v>
       </c>
+      <c r="D288" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
@@ -6446,6 +6411,9 @@
       <c r="C289" t="s">
         <v>9</v>
       </c>
+      <c r="D289" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
@@ -6457,6 +6425,9 @@
       <c r="C290" t="s">
         <v>6</v>
       </c>
+      <c r="D290" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
@@ -6468,6 +6439,9 @@
       <c r="C291" t="s">
         <v>9</v>
       </c>
+      <c r="D291" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
@@ -6479,6 +6453,9 @@
       <c r="C292" t="s">
         <v>9</v>
       </c>
+      <c r="D292" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
@@ -6490,6 +6467,9 @@
       <c r="C293" t="s">
         <v>6</v>
       </c>
+      <c r="D293" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
@@ -6501,6 +6481,9 @@
       <c r="C294" t="s">
         <v>6</v>
       </c>
+      <c r="D294" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
@@ -6512,6 +6495,9 @@
       <c r="C295" t="s">
         <v>6</v>
       </c>
+      <c r="D295" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
@@ -6523,6 +6509,9 @@
       <c r="C296" t="s">
         <v>9</v>
       </c>
+      <c r="D296" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
@@ -6534,6 +6523,9 @@
       <c r="C297" t="s">
         <v>6</v>
       </c>
+      <c r="D297" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
@@ -6545,6 +6537,9 @@
       <c r="C298" t="s">
         <v>9</v>
       </c>
+      <c r="D298" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
@@ -6556,6 +6551,9 @@
       <c r="C299" t="s">
         <v>9</v>
       </c>
+      <c r="D299" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
@@ -6567,19 +6565,22 @@
       <c r="C300" t="s">
         <v>9</v>
       </c>
+      <c r="D300" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
@@ -6592,6 +6593,9 @@
       <c r="C302" t="s">
         <v>9</v>
       </c>
+      <c r="D302" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
@@ -6603,6 +6607,9 @@
       <c r="C303" t="s">
         <v>6</v>
       </c>
+      <c r="D303" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
@@ -6614,6 +6621,9 @@
       <c r="C304" t="s">
         <v>6</v>
       </c>
+      <c r="D304" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
@@ -6625,19 +6635,22 @@
       <c r="C305" t="s">
         <v>9</v>
       </c>
+      <c r="D305" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="C306" t="s">
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
@@ -6650,19 +6663,22 @@
       <c r="C307" t="s">
         <v>9</v>
       </c>
+      <c r="D307" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="C308" t="s">
         <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
@@ -6670,13 +6686,13 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="C309" t="s">
         <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
@@ -6689,6 +6705,9 @@
       <c r="C310" t="s">
         <v>9</v>
       </c>
+      <c r="D310" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
@@ -6700,6 +6719,9 @@
       <c r="C311" t="s">
         <v>9</v>
       </c>
+      <c r="D311" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
@@ -6711,19 +6733,22 @@
       <c r="C312" t="s">
         <v>9</v>
       </c>
+      <c r="D312" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
       </c>
       <c r="D313" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
@@ -6731,13 +6756,13 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
@@ -6750,19 +6775,22 @@
       <c r="C315" t="s">
         <v>6</v>
       </c>
+      <c r="D315" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="C316" t="s">
         <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
@@ -6775,6 +6803,9 @@
       <c r="C317" t="s">
         <v>9</v>
       </c>
+      <c r="D317" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
@@ -6786,6 +6817,9 @@
       <c r="C318" t="s">
         <v>9</v>
       </c>
+      <c r="D318" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
@@ -6797,19 +6831,22 @@
       <c r="C319" t="s">
         <v>6</v>
       </c>
+      <c r="D319" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="C320" t="s">
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
@@ -6822,6 +6859,9 @@
       <c r="C321" t="s">
         <v>9</v>
       </c>
+      <c r="D321" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
@@ -6833,6 +6873,9 @@
       <c r="C322" t="s">
         <v>6</v>
       </c>
+      <c r="D322" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
@@ -6844,19 +6887,22 @@
       <c r="C323" t="s">
         <v>9</v>
       </c>
+      <c r="D323" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="C324" t="s">
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
@@ -6864,13 +6910,13 @@
         <v>4</v>
       </c>
       <c r="B325" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="C325" t="s">
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
@@ -6883,6 +6929,9 @@
       <c r="C326" t="s">
         <v>9</v>
       </c>
+      <c r="D326" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
@@ -6894,6 +6943,9 @@
       <c r="C327" t="s">
         <v>6</v>
       </c>
+      <c r="D327" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
@@ -6905,6 +6957,9 @@
       <c r="C328" t="s">
         <v>6</v>
       </c>
+      <c r="D328" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
@@ -6916,6 +6971,9 @@
       <c r="C329" t="s">
         <v>9</v>
       </c>
+      <c r="D329" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
@@ -6927,19 +6985,22 @@
       <c r="C330" t="s">
         <v>6</v>
       </c>
+      <c r="D330" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>4</v>
       </c>
       <c r="B331" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="C331" t="s">
         <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
@@ -6952,6 +7013,9 @@
       <c r="C332" t="s">
         <v>6</v>
       </c>
+      <c r="D332" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
@@ -6963,6 +7027,9 @@
       <c r="C333" t="s">
         <v>9</v>
       </c>
+      <c r="D333" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
@@ -6974,6 +7041,9 @@
       <c r="C334" t="s">
         <v>9</v>
       </c>
+      <c r="D334" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
@@ -6985,19 +7055,22 @@
       <c r="C335" t="s">
         <v>9</v>
       </c>
+      <c r="D335" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
       </c>
       <c r="D336" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
@@ -7010,6 +7083,9 @@
       <c r="C337" t="s">
         <v>9</v>
       </c>
+      <c r="D337" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
@@ -7021,19 +7097,22 @@
       <c r="C338" t="s">
         <v>6</v>
       </c>
+      <c r="D338" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>4</v>
       </c>
       <c r="B339" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="C339" t="s">
         <v>9</v>
       </c>
       <c r="D339" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
@@ -7046,6 +7125,9 @@
       <c r="C340" t="s">
         <v>9</v>
       </c>
+      <c r="D340" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
@@ -7057,6 +7139,9 @@
       <c r="C341" t="s">
         <v>9</v>
       </c>
+      <c r="D341" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
@@ -7068,19 +7153,22 @@
       <c r="C342" t="s">
         <v>6</v>
       </c>
+      <c r="D342" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>4</v>
       </c>
       <c r="B343" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="C343" t="s">
         <v>9</v>
       </c>
       <c r="D343" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
@@ -7093,6 +7181,9 @@
       <c r="C344" t="s">
         <v>9</v>
       </c>
+      <c r="D344" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
@@ -7104,19 +7195,22 @@
       <c r="C345" t="s">
         <v>6</v>
       </c>
+      <c r="D345" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>4</v>
       </c>
       <c r="B346" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
       </c>
       <c r="D346" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
@@ -7124,13 +7218,13 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="C347" t="s">
         <v>9</v>
       </c>
       <c r="D347" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
@@ -7138,13 +7232,13 @@
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C348" t="s">
         <v>6</v>
       </c>
       <c r="D348" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
@@ -7152,13 +7246,13 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
@@ -7166,13 +7260,13 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="C350" t="s">
         <v>9</v>
       </c>
       <c r="D350" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
@@ -7185,6 +7279,9 @@
       <c r="C351" t="s">
         <v>6</v>
       </c>
+      <c r="D351" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
@@ -7196,6 +7293,9 @@
       <c r="C352" t="s">
         <v>6</v>
       </c>
+      <c r="D352" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
@@ -7207,6 +7307,9 @@
       <c r="C353" t="s">
         <v>9</v>
       </c>
+      <c r="D353" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
@@ -7218,6 +7321,9 @@
       <c r="C354" t="s">
         <v>6</v>
       </c>
+      <c r="D354" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
@@ -7229,6 +7335,9 @@
       <c r="C355" t="s">
         <v>6</v>
       </c>
+      <c r="D355" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
@@ -7240,6 +7349,9 @@
       <c r="C356" t="s">
         <v>9</v>
       </c>
+      <c r="D356" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
@@ -7251,6 +7363,9 @@
       <c r="C357" t="s">
         <v>9</v>
       </c>
+      <c r="D357" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
@@ -7262,6 +7377,9 @@
       <c r="C358" t="s">
         <v>9</v>
       </c>
+      <c r="D358" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
@@ -7273,6 +7391,9 @@
       <c r="C359" t="s">
         <v>6</v>
       </c>
+      <c r="D359" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
@@ -7284,6 +7405,9 @@
       <c r="C360" t="s">
         <v>9</v>
       </c>
+      <c r="D360" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
@@ -7295,19 +7419,22 @@
       <c r="C361" t="s">
         <v>9</v>
       </c>
+      <c r="D361" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>4</v>
       </c>
       <c r="B362" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="C362" t="s">
         <v>9</v>
       </c>
       <c r="D362" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
@@ -7320,6 +7447,9 @@
       <c r="C363" t="s">
         <v>6</v>
       </c>
+      <c r="D363" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
@@ -7331,6 +7461,9 @@
       <c r="C364" t="s">
         <v>6</v>
       </c>
+      <c r="D364" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
@@ -7342,6 +7475,9 @@
       <c r="C365" t="s">
         <v>6</v>
       </c>
+      <c r="D365" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
@@ -7370,10 +7506,10 @@
         <v>130</v>
       </c>
       <c r="B368" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="C368" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -7392,10 +7528,10 @@
         <v>130</v>
       </c>
       <c r="B370" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="C370" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -7425,10 +7561,10 @@
         <v>130</v>
       </c>
       <c r="B373" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="C373" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -7469,10 +7605,10 @@
         <v>130</v>
       </c>
       <c r="B377" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="C377" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -7480,10 +7616,10 @@
         <v>130</v>
       </c>
       <c r="B378" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="C378" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -7513,10 +7649,10 @@
         <v>130</v>
       </c>
       <c r="B381" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="C381" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -7524,10 +7660,10 @@
         <v>130</v>
       </c>
       <c r="B382" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="C382" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
@@ -7535,10 +7671,10 @@
         <v>130</v>
       </c>
       <c r="B383" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="C383" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -7546,10 +7682,10 @@
         <v>130</v>
       </c>
       <c r="B384" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="C384" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
@@ -7568,10 +7704,10 @@
         <v>130</v>
       </c>
       <c r="B386" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="C386" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
@@ -7601,10 +7737,10 @@
         <v>130</v>
       </c>
       <c r="B389" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="C389" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
@@ -7634,10 +7770,10 @@
         <v>130</v>
       </c>
       <c r="B392" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="C392" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
@@ -7645,10 +7781,10 @@
         <v>130</v>
       </c>
       <c r="B393" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="C393" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
@@ -7689,10 +7825,10 @@
         <v>130</v>
       </c>
       <c r="B397" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="C397" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
@@ -7700,7 +7836,7 @@
         <v>130</v>
       </c>
       <c r="B398" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="C398" t="s">
         <v>186</v>
@@ -7733,7 +7869,7 @@
         <v>130</v>
       </c>
       <c r="B401" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="C401" t="s">
         <v>195</v>
@@ -7755,10 +7891,10 @@
         <v>130</v>
       </c>
       <c r="B403" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="C403" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
@@ -7810,10 +7946,10 @@
         <v>130</v>
       </c>
       <c r="B408" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="C408" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
@@ -7832,10 +7968,10 @@
         <v>130</v>
       </c>
       <c r="B410" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="C410" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
@@ -7854,7 +7990,7 @@
         <v>130</v>
       </c>
       <c r="B412" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="C412" t="s">
         <v>226</v>
@@ -7876,7 +8012,7 @@
         <v>130</v>
       </c>
       <c r="B414" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="C414" t="s">
         <v>195</v>
@@ -7887,7 +8023,7 @@
         <v>130</v>
       </c>
       <c r="B415" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="C415" t="s">
         <v>222</v>
@@ -7920,10 +8056,10 @@
         <v>130</v>
       </c>
       <c r="B418" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="C418" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
@@ -7942,10 +8078,10 @@
         <v>130</v>
       </c>
       <c r="B420" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="C420" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
@@ -7953,10 +8089,10 @@
         <v>130</v>
       </c>
       <c r="B421" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="C421" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
@@ -7964,10 +8100,10 @@
         <v>130</v>
       </c>
       <c r="B422" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="C422" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
@@ -7975,10 +8111,10 @@
         <v>130</v>
       </c>
       <c r="B423" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="C423" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
@@ -7986,7 +8122,7 @@
         <v>130</v>
       </c>
       <c r="B424" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="C424" t="s">
         <v>136</v>
@@ -7997,10 +8133,10 @@
         <v>130</v>
       </c>
       <c r="B425" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="C425" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
@@ -8008,10 +8144,10 @@
         <v>130</v>
       </c>
       <c r="B426" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="C426" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
@@ -8019,10 +8155,10 @@
         <v>130</v>
       </c>
       <c r="B427" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="C427" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
@@ -8030,10 +8166,10 @@
         <v>130</v>
       </c>
       <c r="B428" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="C428" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
@@ -8063,10 +8199,10 @@
         <v>130</v>
       </c>
       <c r="B431" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="C431" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
@@ -8074,10 +8210,10 @@
         <v>130</v>
       </c>
       <c r="B432" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="C432" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
@@ -8107,10 +8243,10 @@
         <v>130</v>
       </c>
       <c r="B435" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="C435" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
@@ -8173,10 +8309,10 @@
         <v>130</v>
       </c>
       <c r="B441" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="C441" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
@@ -8184,7 +8320,7 @@
         <v>130</v>
       </c>
       <c r="B442" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="C442" t="s">
         <v>154</v>
@@ -8195,10 +8331,10 @@
         <v>130</v>
       </c>
       <c r="B443" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="C443" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
@@ -8206,7 +8342,7 @@
         <v>130</v>
       </c>
       <c r="B444" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="C444" t="s">
         <v>154</v>
@@ -8228,10 +8364,10 @@
         <v>130</v>
       </c>
       <c r="B446" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C446" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
@@ -8239,10 +8375,10 @@
         <v>130</v>
       </c>
       <c r="B447" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="C447" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
@@ -8261,7 +8397,7 @@
         <v>130</v>
       </c>
       <c r="B449" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="C449" t="s">
         <v>168</v>
@@ -8283,10 +8419,10 @@
         <v>130</v>
       </c>
       <c r="B451" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="C451" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
@@ -8294,10 +8430,10 @@
         <v>130</v>
       </c>
       <c r="B452" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="C452" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
@@ -8327,10 +8463,10 @@
         <v>130</v>
       </c>
       <c r="B455" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="C455" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
@@ -8360,10 +8496,10 @@
         <v>130</v>
       </c>
       <c r="B458" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="C458" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
@@ -8371,10 +8507,10 @@
         <v>130</v>
       </c>
       <c r="B459" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="C459" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
@@ -8382,7 +8518,7 @@
         <v>130</v>
       </c>
       <c r="B460" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="C460" t="s">
         <v>180</v>
@@ -8404,10 +8540,10 @@
         <v>130</v>
       </c>
       <c r="B462" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="C462" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
